--- a/data/non_data.xlsx
+++ b/data/non_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>date</t>
   </si>
@@ -56,6 +56,51 @@
   </si>
   <si>
     <t>v_ma20</t>
+  </si>
+  <si>
+    <t>2018-09-10</t>
+  </si>
+  <si>
+    <t>2018-09-07</t>
+  </si>
+  <si>
+    <t>2018-09-06</t>
+  </si>
+  <si>
+    <t>2018-09-05</t>
+  </si>
+  <si>
+    <t>2018-09-04</t>
+  </si>
+  <si>
+    <t>2018-09-03</t>
+  </si>
+  <si>
+    <t>2018-08-31</t>
+  </si>
+  <si>
+    <t>2018-08-30</t>
+  </si>
+  <si>
+    <t>2018-08-29</t>
+  </si>
+  <si>
+    <t>2018-08-28</t>
+  </si>
+  <si>
+    <t>2018-08-27</t>
+  </si>
+  <si>
+    <t>2018-08-24</t>
+  </si>
+  <si>
+    <t>2018-08-23</t>
+  </si>
+  <si>
+    <t>2018-08-22</t>
+  </si>
+  <si>
+    <t>2018-08-21</t>
   </si>
   <si>
     <t>2018-08-20</t>
@@ -186,28 +231,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -231,6 +261,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -239,7 +292,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -247,8 +300,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,29 +330,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,22 +373,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -339,31 +383,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -394,19 +424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,13 +466,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,7 +508,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,79 +550,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,6 +581,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,6 +630,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -619,7 +660,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,15 +676,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,169 +706,167 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1185,15 +1215,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="9.66666666666667"/>
+    <col min="12" max="14" width="9.66666666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1245,43 +1277,43 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>5.68</v>
+        <v>5.82</v>
       </c>
       <c r="C2">
+        <v>5.87</v>
+      </c>
+      <c r="D2">
+        <v>5.83</v>
+      </c>
+      <c r="E2">
         <v>5.77</v>
       </c>
-      <c r="D2">
-        <v>5.73</v>
-      </c>
-      <c r="E2">
-        <v>5.56</v>
-      </c>
       <c r="F2">
-        <v>34073.08</v>
+        <v>14605.2</v>
       </c>
       <c r="G2">
-        <v>0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="H2">
-        <v>0.7</v>
+        <v>-0.17</v>
       </c>
       <c r="I2">
-        <v>5.77</v>
+        <v>5.852</v>
       </c>
       <c r="J2">
-        <v>5.812</v>
+        <v>5.875</v>
       </c>
       <c r="K2">
-        <v>5.838</v>
+        <v>5.841</v>
       </c>
       <c r="L2">
-        <v>27598.42</v>
+        <v>25427.3</v>
       </c>
       <c r="M2">
-        <v>33886.25</v>
+        <v>23966.81</v>
       </c>
       <c r="N2">
-        <v>45860.29</v>
+        <v>26765.78</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1289,43 +1321,43 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>5.78</v>
+        <v>5.82</v>
       </c>
       <c r="C3">
-        <v>5.79</v>
+        <v>5.86</v>
       </c>
       <c r="D3">
-        <v>5.69</v>
+        <v>5.84</v>
       </c>
       <c r="E3">
-        <v>5.69</v>
+        <v>5.8</v>
       </c>
       <c r="F3">
-        <v>22799</v>
+        <v>17934</v>
       </c>
       <c r="G3">
-        <v>-0.09</v>
+        <v>-0.01</v>
       </c>
       <c r="H3">
-        <v>-1.56</v>
+        <v>-0.17</v>
       </c>
       <c r="I3">
-        <v>5.792</v>
+        <v>5.856</v>
       </c>
       <c r="J3">
-        <v>5.817</v>
+        <v>5.884</v>
       </c>
       <c r="K3">
-        <v>5.851</v>
+        <v>5.841</v>
       </c>
       <c r="L3">
-        <v>25592.29</v>
+        <v>26755.46</v>
       </c>
       <c r="M3">
-        <v>33272.64</v>
+        <v>26480.45</v>
       </c>
       <c r="N3">
-        <v>48060.38</v>
+        <v>27237.64</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1333,43 +1365,43 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>5.79</v>
+        <v>5.88</v>
       </c>
       <c r="C4">
-        <v>5.8</v>
+        <v>5.95</v>
       </c>
       <c r="D4">
-        <v>5.78</v>
+        <v>5.85</v>
       </c>
       <c r="E4">
-        <v>5.73</v>
+        <v>5.83</v>
       </c>
       <c r="F4">
-        <v>42919</v>
+        <v>26481.52</v>
       </c>
       <c r="G4">
         <v>-0.03</v>
       </c>
       <c r="H4">
-        <v>-0.52</v>
+        <v>-0.51</v>
       </c>
       <c r="I4">
-        <v>5.824</v>
+        <v>5.856</v>
       </c>
       <c r="J4">
-        <v>5.826</v>
+        <v>5.885</v>
       </c>
       <c r="K4">
-        <v>5.859</v>
+        <v>5.842</v>
       </c>
       <c r="L4">
-        <v>26544.49</v>
+        <v>26641.86</v>
       </c>
       <c r="M4">
-        <v>33306.24</v>
+        <v>28260.01</v>
       </c>
       <c r="N4">
-        <v>48357.93</v>
+        <v>27718.94</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1377,43 +1409,43 @@
         <v>17</v>
       </c>
       <c r="B5">
+        <v>5.84</v>
+      </c>
+      <c r="C5">
+        <v>6.05</v>
+      </c>
+      <c r="D5">
+        <v>5.88</v>
+      </c>
+      <c r="E5">
         <v>5.82</v>
       </c>
-      <c r="C5">
-        <v>5.84</v>
-      </c>
-      <c r="D5">
-        <v>5.81</v>
-      </c>
-      <c r="E5">
-        <v>5.76</v>
-      </c>
       <c r="F5">
-        <v>17834</v>
+        <v>53565.78</v>
       </c>
       <c r="G5">
-        <v>-0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H5">
-        <v>-0.51</v>
+        <v>0.34</v>
       </c>
       <c r="I5">
-        <v>5.846</v>
+        <v>5.866</v>
       </c>
       <c r="J5">
-        <v>5.827</v>
+        <v>5.88</v>
       </c>
       <c r="K5">
-        <v>5.861</v>
+        <v>5.844</v>
       </c>
       <c r="L5">
-        <v>32001.66</v>
+        <v>24747.06</v>
       </c>
       <c r="M5">
-        <v>34833.82</v>
+        <v>28755.56</v>
       </c>
       <c r="N5">
-        <v>47657.62</v>
+        <v>29905.11</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1421,43 +1453,43 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="C6">
         <v>5.86</v>
       </c>
       <c r="D6">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="E6">
         <v>5.8</v>
       </c>
       <c r="F6">
-        <v>20367</v>
+        <v>14550</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="I6">
-        <v>5.852</v>
+        <v>5.88</v>
       </c>
       <c r="J6">
-        <v>5.831</v>
+        <v>5.876</v>
       </c>
       <c r="K6">
-        <v>5.861</v>
+        <v>5.842</v>
       </c>
       <c r="L6">
-        <v>35775.86</v>
+        <v>18758.7</v>
       </c>
       <c r="M6">
-        <v>38466.12</v>
+        <v>25638</v>
       </c>
       <c r="N6">
-        <v>48328.17</v>
+        <v>29062.07</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1468,40 +1500,40 @@
         <v>5.8</v>
       </c>
       <c r="C7">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="D7">
-        <v>5.84</v>
+        <v>5.85</v>
       </c>
       <c r="E7">
-        <v>5.75</v>
+        <v>5.74</v>
       </c>
       <c r="F7">
-        <v>24042.43</v>
+        <v>21246</v>
       </c>
       <c r="G7">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="H7">
-        <v>-0.17</v>
+        <v>0.17</v>
       </c>
       <c r="I7">
-        <v>5.854</v>
+        <v>5.898</v>
       </c>
       <c r="J7">
-        <v>5.838</v>
+        <v>5.87</v>
       </c>
       <c r="K7">
-        <v>5.862</v>
+        <v>5.841</v>
       </c>
       <c r="L7">
-        <v>40174.09</v>
+        <v>22506.32</v>
       </c>
       <c r="M7">
-        <v>46142.02</v>
+        <v>27018.7</v>
       </c>
       <c r="N7">
-        <v>51475.22</v>
+        <v>30452.48</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1509,43 +1541,43 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="C8">
-        <v>5.9</v>
+        <v>5.92</v>
       </c>
       <c r="D8">
-        <v>5.85</v>
+        <v>5.84</v>
       </c>
       <c r="E8">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="F8">
-        <v>27560</v>
+        <v>17366</v>
       </c>
       <c r="G8">
-        <v>-0.04</v>
+        <v>-0.06</v>
       </c>
       <c r="H8">
-        <v>-0.68</v>
+        <v>-1.02</v>
       </c>
       <c r="I8">
-        <v>5.842</v>
+        <v>5.912</v>
       </c>
       <c r="J8">
-        <v>5.837</v>
+        <v>5.858</v>
       </c>
       <c r="K8">
-        <v>5.865</v>
+        <v>5.838</v>
       </c>
       <c r="L8">
-        <v>40953</v>
+        <v>26205.43</v>
       </c>
       <c r="M8">
-        <v>48707.76</v>
+        <v>28301.41</v>
       </c>
       <c r="N8">
-        <v>51912.25</v>
+        <v>30787.03</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1553,43 +1585,43 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>5.82</v>
+        <v>5.92</v>
       </c>
       <c r="C9">
-        <v>5.95</v>
+        <v>5.98</v>
       </c>
       <c r="D9">
+        <v>5.9</v>
+      </c>
+      <c r="E9">
         <v>5.89</v>
       </c>
-      <c r="E9">
-        <v>5.8</v>
-      </c>
       <c r="F9">
-        <v>70204.88</v>
+        <v>17007.52</v>
       </c>
       <c r="G9">
-        <v>0.05</v>
+        <v>-0.05</v>
       </c>
       <c r="H9">
-        <v>0.86</v>
+        <v>-0.84</v>
       </c>
       <c r="I9">
-        <v>5.828</v>
+        <v>5.914</v>
       </c>
       <c r="J9">
-        <v>5.842</v>
+        <v>5.843</v>
       </c>
       <c r="K9">
-        <v>5.872</v>
+        <v>5.835</v>
       </c>
       <c r="L9">
-        <v>40068</v>
+        <v>29878.16</v>
       </c>
       <c r="M9">
-        <v>49335.95</v>
+        <v>28844.71</v>
       </c>
       <c r="N9">
-        <v>52225.64</v>
+        <v>31075.48</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1597,43 +1629,43 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>5.82</v>
+        <v>5.93</v>
       </c>
       <c r="C10">
-        <v>5.89</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>5.84</v>
+        <v>5.95</v>
       </c>
       <c r="E10">
-        <v>5.76</v>
+        <v>5.9</v>
       </c>
       <c r="F10">
-        <v>36704.99</v>
+        <v>23623.99</v>
       </c>
       <c r="G10">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-0.17</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>5.808</v>
+        <v>5.894</v>
       </c>
       <c r="J10">
-        <v>5.845</v>
+        <v>5.831</v>
       </c>
       <c r="K10">
-        <v>5.879</v>
+        <v>5.829</v>
       </c>
       <c r="L10">
-        <v>37665.98</v>
+        <v>32764.05</v>
       </c>
       <c r="M10">
-        <v>49105.13</v>
+        <v>31435.86</v>
       </c>
       <c r="N10">
-        <v>52168.77</v>
+        <v>33134.84</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1641,43 +1673,43 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>5.77</v>
+        <v>5.9</v>
       </c>
       <c r="C11">
-        <v>5.85</v>
+        <v>5.96</v>
       </c>
       <c r="D11">
-        <v>5.85</v>
+        <v>5.95</v>
       </c>
       <c r="E11">
-        <v>5.73</v>
+        <v>5.83</v>
       </c>
       <c r="F11">
-        <v>42358.14</v>
+        <v>33288.11</v>
       </c>
       <c r="G11">
-        <v>0.07</v>
+        <v>0.03</v>
       </c>
       <c r="H11">
-        <v>1.21</v>
+        <v>0.51</v>
       </c>
       <c r="I11">
-        <v>5.81</v>
+        <v>5.872</v>
       </c>
       <c r="J11">
-        <v>5.851</v>
+        <v>5.817</v>
       </c>
       <c r="K11">
-        <v>5.888</v>
+        <v>5.824</v>
       </c>
       <c r="L11">
-        <v>41156.38</v>
+        <v>32517.3</v>
       </c>
       <c r="M11">
-        <v>54179.54</v>
+        <v>30856.86</v>
       </c>
       <c r="N11">
-        <v>54207.48</v>
+        <v>34661.49</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1685,43 +1717,43 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>5.78</v>
+        <v>5.84</v>
       </c>
       <c r="C12">
-        <v>5.78</v>
+        <v>5.98</v>
       </c>
       <c r="D12">
-        <v>5.78</v>
+        <v>5.92</v>
       </c>
       <c r="E12">
-        <v>5.67</v>
+        <v>5.82</v>
       </c>
       <c r="F12">
-        <v>27936.99</v>
+        <v>39741.55</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.07</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="I12">
+        <v>5.842</v>
+      </c>
+      <c r="J12">
+        <v>5.806</v>
+      </c>
+      <c r="K12">
         <v>5.822</v>
       </c>
-      <c r="J12">
-        <v>5.863</v>
-      </c>
-      <c r="K12">
-        <v>5.895</v>
-      </c>
       <c r="L12">
-        <v>52109.96</v>
+        <v>31531.08</v>
       </c>
       <c r="M12">
-        <v>57834.32</v>
+        <v>29564.75</v>
       </c>
       <c r="N12">
-        <v>55519.92</v>
+        <v>37853.38</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1729,43 +1761,43 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>5.76</v>
+        <v>5.82</v>
       </c>
       <c r="C13">
-        <v>5.79</v>
+        <v>5.87</v>
       </c>
       <c r="D13">
-        <v>5.78</v>
+        <v>5.85</v>
       </c>
       <c r="E13">
-        <v>5.72</v>
+        <v>5.77</v>
       </c>
       <c r="F13">
-        <v>23135</v>
+        <v>35729.62</v>
       </c>
       <c r="G13">
-        <v>-0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H13">
-        <v>-0.17</v>
+        <v>0.86</v>
       </c>
       <c r="I13">
-        <v>5.832</v>
+        <v>5.804</v>
       </c>
       <c r="J13">
-        <v>5.885</v>
+        <v>5.798</v>
       </c>
       <c r="K13">
-        <v>5.913</v>
+        <v>5.818</v>
       </c>
       <c r="L13">
-        <v>56462.53</v>
+        <v>30397.38</v>
       </c>
       <c r="M13">
-        <v>62848.13</v>
+        <v>27994.83</v>
       </c>
       <c r="N13">
-        <v>63948.55</v>
+        <v>38351.3</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1773,43 +1805,43 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="C14">
-        <v>5.79</v>
+        <v>5.83</v>
       </c>
       <c r="D14">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="E14">
-        <v>5.67</v>
+        <v>5.74</v>
       </c>
       <c r="F14">
-        <v>58194.79</v>
+        <v>31437</v>
       </c>
       <c r="G14">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="H14">
-        <v>-1.03</v>
+        <v>-0.69</v>
       </c>
       <c r="I14">
-        <v>5.856</v>
+        <v>5.772</v>
       </c>
       <c r="J14">
-        <v>5.892</v>
+        <v>5.798</v>
       </c>
       <c r="K14">
-        <v>5.942</v>
+        <v>5.82</v>
       </c>
       <c r="L14">
-        <v>58603.9</v>
+        <v>27811.26</v>
       </c>
       <c r="M14">
-        <v>63409.63</v>
+        <v>27177.87</v>
       </c>
       <c r="N14">
-        <v>72189.96</v>
+        <v>38256.91</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1817,43 +1849,43 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="C15">
         <v>5.88</v>
       </c>
       <c r="D15">
-        <v>5.85</v>
+        <v>5.84</v>
       </c>
       <c r="E15">
         <v>5.78</v>
       </c>
       <c r="F15">
-        <v>54157</v>
+        <v>22390.21</v>
       </c>
       <c r="G15">
-        <v>-0.06</v>
+        <v>0.04</v>
       </c>
       <c r="H15">
-        <v>-1.01</v>
+        <v>0.69</v>
       </c>
       <c r="I15">
-        <v>5.882</v>
+        <v>5.768</v>
       </c>
       <c r="J15">
-        <v>5.894</v>
+        <v>5.807</v>
       </c>
       <c r="K15">
-        <v>5.961</v>
+        <v>5.826</v>
       </c>
       <c r="L15">
-        <v>60544.29</v>
+        <v>30107.66</v>
       </c>
       <c r="M15">
-        <v>60481.42</v>
+        <v>31054.66</v>
       </c>
       <c r="N15">
-        <v>72230.53</v>
+        <v>40079.9</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1861,43 +1893,43 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>5.81</v>
+        <v>5.73</v>
       </c>
       <c r="C16">
-        <v>5.92</v>
+        <v>5.83</v>
       </c>
       <c r="D16">
-        <v>5.91</v>
+        <v>5.8</v>
       </c>
       <c r="E16">
-        <v>5.77</v>
+        <v>5.73</v>
       </c>
       <c r="F16">
-        <v>97126</v>
+        <v>28357</v>
       </c>
       <c r="G16">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="H16">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="I16">
-        <v>5.892</v>
+        <v>5.762</v>
       </c>
       <c r="J16">
-        <v>5.89</v>
+        <v>5.807</v>
       </c>
       <c r="K16">
-        <v>5.984</v>
+        <v>5.829</v>
       </c>
       <c r="L16">
-        <v>67202.69</v>
+        <v>29196.42</v>
       </c>
       <c r="M16">
-        <v>58190.21</v>
+        <v>32486.14</v>
       </c>
       <c r="N16">
-        <v>71610.78</v>
+        <v>43332.84</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1905,43 +1937,43 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>5.88</v>
+        <v>5.68</v>
       </c>
       <c r="C17">
-        <v>5.88</v>
+        <v>5.77</v>
       </c>
       <c r="D17">
-        <v>5.83</v>
+        <v>5.73</v>
       </c>
       <c r="E17">
-        <v>5.75</v>
+        <v>5.56</v>
       </c>
       <c r="F17">
-        <v>49699.84</v>
+        <v>34073.08</v>
       </c>
       <c r="G17">
-        <v>-0.07</v>
+        <v>0.04</v>
       </c>
       <c r="H17">
-        <v>-1.19</v>
+        <v>0.7</v>
       </c>
       <c r="I17">
-        <v>5.904</v>
+        <v>5.77</v>
       </c>
       <c r="J17">
-        <v>5.885</v>
+        <v>5.812</v>
       </c>
       <c r="K17">
-        <v>6.008</v>
+        <v>5.838</v>
       </c>
       <c r="L17">
-        <v>63558.69</v>
+        <v>27598.42</v>
       </c>
       <c r="M17">
-        <v>56808.43</v>
+        <v>33886.25</v>
       </c>
       <c r="N17">
-        <v>68488.26</v>
+        <v>45860.29</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1949,43 +1981,43 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>5.9</v>
+        <v>5.78</v>
       </c>
       <c r="C18">
-        <v>5.91</v>
+        <v>5.79</v>
       </c>
       <c r="D18">
-        <v>5.9</v>
+        <v>5.69</v>
       </c>
       <c r="E18">
-        <v>5.85</v>
+        <v>5.69</v>
       </c>
       <c r="F18">
-        <v>33841.89</v>
+        <v>22799</v>
       </c>
       <c r="G18">
-        <v>-0.02</v>
+        <v>-0.09</v>
       </c>
       <c r="H18">
-        <v>-0.34</v>
+        <v>-1.56</v>
       </c>
       <c r="I18">
-        <v>5.938</v>
+        <v>5.792</v>
       </c>
       <c r="J18">
-        <v>5.892</v>
+        <v>5.817</v>
       </c>
       <c r="K18">
-        <v>6.035</v>
+        <v>5.851</v>
       </c>
       <c r="L18">
-        <v>69233.72</v>
+        <v>25592.29</v>
       </c>
       <c r="M18">
-        <v>55116.74</v>
+        <v>33272.64</v>
       </c>
       <c r="N18">
-        <v>66776.82</v>
+        <v>48060.38</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1993,43 +2025,43 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>5.88</v>
+        <v>5.79</v>
       </c>
       <c r="C19">
-        <v>5.93</v>
+        <v>5.8</v>
       </c>
       <c r="D19">
-        <v>5.92</v>
+        <v>5.78</v>
       </c>
       <c r="E19">
-        <v>5.82</v>
+        <v>5.73</v>
       </c>
       <c r="F19">
-        <v>67896.7</v>
+        <v>42919</v>
       </c>
       <c r="G19">
-        <v>0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="H19">
-        <v>0.34</v>
+        <v>-0.52</v>
       </c>
       <c r="I19">
-        <v>5.928</v>
+        <v>5.824</v>
       </c>
       <c r="J19">
-        <v>5.901</v>
+        <v>5.826</v>
       </c>
       <c r="K19">
-        <v>6.062</v>
+        <v>5.859</v>
       </c>
       <c r="L19">
-        <v>68215.35</v>
+        <v>26544.49</v>
       </c>
       <c r="M19">
-        <v>55115.32</v>
+        <v>33306.24</v>
       </c>
       <c r="N19">
-        <v>67191.43</v>
+        <v>48357.93</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2037,43 +2069,43 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>5.96</v>
+        <v>5.82</v>
       </c>
       <c r="C20">
-        <v>5.97</v>
+        <v>5.84</v>
       </c>
       <c r="D20">
-        <v>5.9</v>
+        <v>5.81</v>
       </c>
       <c r="E20">
-        <v>5.84</v>
+        <v>5.76</v>
       </c>
       <c r="F20">
-        <v>87449</v>
+        <v>17834</v>
       </c>
       <c r="G20">
-        <v>-0.07</v>
+        <v>-0.03</v>
       </c>
       <c r="H20">
-        <v>-1.17</v>
+        <v>-0.51</v>
       </c>
       <c r="I20">
-        <v>5.906</v>
+        <v>5.846</v>
       </c>
       <c r="J20">
-        <v>5.913</v>
+        <v>5.827</v>
       </c>
       <c r="K20">
-        <v>6.081</v>
+        <v>5.861</v>
       </c>
       <c r="L20">
-        <v>60418.56</v>
+        <v>32001.66</v>
       </c>
       <c r="M20">
-        <v>55232.42</v>
+        <v>34833.82</v>
       </c>
       <c r="N20">
-        <v>64789.5</v>
+        <v>47657.62</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2081,43 +2113,43 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>6.13</v>
+        <v>5.81</v>
       </c>
       <c r="C21">
-        <v>6.13</v>
+        <v>5.86</v>
       </c>
       <c r="D21">
-        <v>5.97</v>
+        <v>5.84</v>
       </c>
       <c r="E21">
-        <v>5.92</v>
+        <v>5.8</v>
       </c>
       <c r="F21">
-        <v>78906</v>
+        <v>20367</v>
       </c>
       <c r="G21">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>5.888</v>
+        <v>5.852</v>
       </c>
       <c r="J21">
-        <v>5.925</v>
+        <v>5.831</v>
       </c>
       <c r="K21">
-        <v>6.101</v>
+        <v>5.861</v>
       </c>
       <c r="L21">
-        <v>49177.74</v>
+        <v>35775.86</v>
       </c>
       <c r="M21">
-        <v>54235.42</v>
+        <v>38466.12</v>
       </c>
       <c r="N21">
-        <v>62512.03</v>
+        <v>48328.17</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2125,43 +2157,43 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>5.85</v>
+        <v>5.8</v>
       </c>
       <c r="C22">
-        <v>6.01</v>
+        <v>5.84</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>5.84</v>
       </c>
       <c r="E22">
-        <v>5.85</v>
+        <v>5.75</v>
       </c>
       <c r="F22">
-        <v>78075.03</v>
+        <v>24042.43</v>
       </c>
       <c r="G22">
-        <v>0.15</v>
+        <v>-0.01</v>
       </c>
       <c r="H22">
-        <v>2.56</v>
+        <v>-0.17</v>
       </c>
       <c r="I22">
-        <v>5.866</v>
+        <v>5.854</v>
       </c>
       <c r="J22">
-        <v>5.927</v>
+        <v>5.838</v>
       </c>
       <c r="K22">
-        <v>6.119</v>
+        <v>5.862</v>
       </c>
       <c r="L22">
-        <v>50058.17</v>
+        <v>40174.09</v>
       </c>
       <c r="M22">
-        <v>53205.52</v>
+        <v>46142.02</v>
       </c>
       <c r="N22">
-        <v>62284.18</v>
+        <v>51475.22</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2169,43 +2201,43 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>5.75</v>
+        <v>5.85</v>
       </c>
       <c r="C23">
-        <v>5.85</v>
+        <v>5.9</v>
       </c>
       <c r="D23">
         <v>5.85</v>
       </c>
       <c r="E23">
-        <v>5.73</v>
+        <v>5.82</v>
       </c>
       <c r="F23">
-        <v>28750</v>
+        <v>27560</v>
       </c>
       <c r="G23">
-        <v>0.04</v>
+        <v>-0.04</v>
       </c>
       <c r="H23">
-        <v>0.69</v>
+        <v>-0.68</v>
       </c>
       <c r="I23">
-        <v>5.846</v>
+        <v>5.842</v>
       </c>
       <c r="J23">
-        <v>5.941</v>
+        <v>5.837</v>
       </c>
       <c r="K23">
-        <v>6.134</v>
+        <v>5.865</v>
       </c>
       <c r="L23">
-        <v>40999.76</v>
+        <v>40953</v>
       </c>
       <c r="M23">
-        <v>65048.97</v>
+        <v>48707.76</v>
       </c>
       <c r="N23">
-        <v>60353.56</v>
+        <v>51912.25</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2213,43 +2245,43 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>5.83</v>
+        <v>5.82</v>
       </c>
       <c r="C24">
-        <v>5.85</v>
+        <v>5.95</v>
       </c>
       <c r="D24">
-        <v>5.81</v>
+        <v>5.89</v>
       </c>
       <c r="E24">
-        <v>5.76</v>
+        <v>5.8</v>
       </c>
       <c r="F24">
-        <v>28912.78</v>
+        <v>70204.88</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="I24">
-        <v>5.874</v>
+        <v>5.828</v>
       </c>
       <c r="J24">
-        <v>5.992</v>
+        <v>5.842</v>
       </c>
       <c r="K24">
-        <v>6.158</v>
+        <v>5.872</v>
       </c>
       <c r="L24">
-        <v>42015.29</v>
+        <v>40068</v>
       </c>
       <c r="M24">
-        <v>80970.3</v>
+        <v>49335.95</v>
       </c>
       <c r="N24">
-        <v>62997.39</v>
+        <v>52225.64</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2257,43 +2289,43 @@
         <v>37</v>
       </c>
       <c r="B25">
+        <v>5.82</v>
+      </c>
+      <c r="C25">
+        <v>5.89</v>
+      </c>
+      <c r="D25">
         <v>5.84</v>
-      </c>
-      <c r="C25">
-        <v>5.84</v>
-      </c>
-      <c r="D25">
-        <v>5.81</v>
       </c>
       <c r="E25">
         <v>5.76</v>
       </c>
       <c r="F25">
-        <v>31244.88</v>
+        <v>36704.99</v>
       </c>
       <c r="G25">
-        <v>-0.05</v>
+        <v>-0.01</v>
       </c>
       <c r="H25">
-        <v>-0.85</v>
+        <v>-0.17</v>
       </c>
       <c r="I25">
-        <v>5.92</v>
+        <v>5.808</v>
       </c>
       <c r="J25">
-        <v>6.028</v>
+        <v>5.845</v>
       </c>
       <c r="K25">
-        <v>6.188</v>
+        <v>5.879</v>
       </c>
       <c r="L25">
-        <v>50046.27</v>
+        <v>37665.98</v>
       </c>
       <c r="M25">
-        <v>83979.63</v>
+        <v>49105.13</v>
       </c>
       <c r="N25">
-        <v>64979.66</v>
+        <v>52168.77</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2301,43 +2333,43 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>5.9</v>
+        <v>5.77</v>
       </c>
       <c r="C26">
-        <v>5.92</v>
+        <v>5.85</v>
       </c>
       <c r="D26">
-        <v>5.86</v>
+        <v>5.85</v>
       </c>
       <c r="E26">
-        <v>5.74</v>
+        <v>5.73</v>
       </c>
       <c r="F26">
-        <v>83308.15</v>
+        <v>42358.14</v>
       </c>
       <c r="G26">
-        <v>-0.04</v>
+        <v>0.07</v>
       </c>
       <c r="H26">
-        <v>-0.68</v>
+        <v>1.21</v>
       </c>
       <c r="I26">
-        <v>5.962</v>
+        <v>5.81</v>
       </c>
       <c r="J26">
-        <v>6.078</v>
+        <v>5.851</v>
       </c>
       <c r="K26">
-        <v>6.223</v>
+        <v>5.888</v>
       </c>
       <c r="L26">
-        <v>59293.09</v>
+        <v>41156.38</v>
       </c>
       <c r="M26">
-        <v>85031.34</v>
+        <v>54179.54</v>
       </c>
       <c r="N26">
-        <v>65199.17</v>
+        <v>54207.48</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2345,43 +2377,43 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>5.99</v>
+        <v>5.78</v>
       </c>
       <c r="C27">
-        <v>5.99</v>
+        <v>5.78</v>
       </c>
       <c r="D27">
-        <v>5.9</v>
+        <v>5.78</v>
       </c>
       <c r="E27">
-        <v>5.9</v>
+        <v>5.67</v>
       </c>
       <c r="F27">
-        <v>32783</v>
+        <v>27936.99</v>
       </c>
       <c r="G27">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>5.988</v>
+        <v>5.822</v>
       </c>
       <c r="J27">
-        <v>6.131</v>
+        <v>5.863</v>
       </c>
       <c r="K27">
-        <v>6.255</v>
+        <v>5.895</v>
       </c>
       <c r="L27">
-        <v>56352.86</v>
+        <v>52109.96</v>
       </c>
       <c r="M27">
-        <v>80168.09</v>
+        <v>57834.32</v>
       </c>
       <c r="N27">
-        <v>65276.47</v>
+        <v>55519.92</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2389,43 +2421,43 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>6.02</v>
+        <v>5.76</v>
       </c>
       <c r="C28">
-        <v>6.06</v>
+        <v>5.79</v>
       </c>
       <c r="D28">
-        <v>5.99</v>
+        <v>5.78</v>
       </c>
       <c r="E28">
-        <v>5.94</v>
+        <v>5.72</v>
       </c>
       <c r="F28">
-        <v>33827.64</v>
+        <v>23135</v>
       </c>
       <c r="G28">
-        <v>-0.05</v>
+        <v>-0.01</v>
       </c>
       <c r="H28">
-        <v>-0.83</v>
+        <v>-0.17</v>
       </c>
       <c r="I28">
-        <v>6.036</v>
+        <v>5.832</v>
       </c>
       <c r="J28">
-        <v>6.177</v>
+        <v>5.885</v>
       </c>
       <c r="K28">
-        <v>6.291</v>
+        <v>5.913</v>
       </c>
       <c r="L28">
-        <v>89098.19</v>
+        <v>56462.53</v>
       </c>
       <c r="M28">
-        <v>78436.9</v>
+        <v>62848.13</v>
       </c>
       <c r="N28">
-        <v>67244.85</v>
+        <v>63948.55</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2433,43 +2465,43 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>5.98</v>
+        <v>5.79</v>
       </c>
       <c r="C29">
-        <v>6.08</v>
+        <v>5.79</v>
       </c>
       <c r="D29">
-        <v>6.04</v>
+        <v>5.79</v>
       </c>
       <c r="E29">
-        <v>5.95</v>
+        <v>5.67</v>
       </c>
       <c r="F29">
-        <v>69067.67</v>
+        <v>58194.79</v>
       </c>
       <c r="G29">
-        <v>0.02</v>
+        <v>-0.06</v>
       </c>
       <c r="H29">
-        <v>0.33</v>
+        <v>-1.03</v>
       </c>
       <c r="I29">
-        <v>6.11</v>
+        <v>5.856</v>
       </c>
       <c r="J29">
-        <v>6.222</v>
+        <v>5.892</v>
       </c>
       <c r="K29">
-        <v>6.324</v>
+        <v>5.942</v>
       </c>
       <c r="L29">
-        <v>119925.31</v>
+        <v>58603.9</v>
       </c>
       <c r="M29">
-        <v>79267.53</v>
+        <v>63409.63</v>
       </c>
       <c r="N29">
-        <v>68432.22</v>
+        <v>72189.96</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2477,43 +2509,43 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>5.96</v>
+        <v>5.83</v>
       </c>
       <c r="C30">
-        <v>6.02</v>
+        <v>5.88</v>
       </c>
       <c r="D30">
-        <v>6.02</v>
+        <v>5.85</v>
       </c>
       <c r="E30">
-        <v>5.8</v>
+        <v>5.78</v>
       </c>
       <c r="F30">
-        <v>77479</v>
+        <v>54157</v>
       </c>
       <c r="G30">
-        <v>0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="H30">
-        <v>0.5</v>
+        <v>-1.01</v>
       </c>
       <c r="I30">
-        <v>6.136</v>
+        <v>5.882</v>
       </c>
       <c r="J30">
-        <v>6.248</v>
+        <v>5.894</v>
       </c>
       <c r="K30">
-        <v>6.359</v>
+        <v>5.961</v>
       </c>
       <c r="L30">
-        <v>117912.99</v>
+        <v>60544.29</v>
       </c>
       <c r="M30">
-        <v>74346.58</v>
+        <v>60481.42</v>
       </c>
       <c r="N30">
-        <v>68372.59</v>
+        <v>72230.53</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2521,43 +2553,43 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>5.93</v>
+        <v>5.81</v>
       </c>
       <c r="C31">
-        <v>6.09</v>
+        <v>5.92</v>
       </c>
       <c r="D31">
-        <v>5.99</v>
+        <v>5.91</v>
       </c>
       <c r="E31">
-        <v>5.88</v>
+        <v>5.77</v>
       </c>
       <c r="F31">
-        <v>68607</v>
+        <v>97126</v>
       </c>
       <c r="G31">
-        <v>-0.15</v>
+        <v>0.08</v>
       </c>
       <c r="H31">
-        <v>-2.44</v>
+        <v>1.37</v>
       </c>
       <c r="I31">
-        <v>6.194</v>
+        <v>5.892</v>
       </c>
       <c r="J31">
-        <v>6.277</v>
+        <v>5.89</v>
       </c>
       <c r="K31">
-        <v>6.394</v>
+        <v>5.984</v>
       </c>
       <c r="L31">
-        <v>110769.59</v>
+        <v>67202.69</v>
       </c>
       <c r="M31">
-        <v>70788.65</v>
+        <v>58190.21</v>
       </c>
       <c r="N31">
-        <v>67591.74</v>
+        <v>71610.78</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2565,43 +2597,43 @@
         <v>44</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>5.88</v>
       </c>
       <c r="C32">
-        <v>6.5</v>
+        <v>5.88</v>
       </c>
       <c r="D32">
-        <v>6.14</v>
+        <v>5.83</v>
       </c>
       <c r="E32">
-        <v>5.72</v>
+        <v>5.75</v>
       </c>
       <c r="F32">
-        <v>196509.62</v>
+        <v>49699.84</v>
       </c>
       <c r="G32">
-        <v>-0.22</v>
+        <v>-0.07</v>
       </c>
       <c r="H32">
-        <v>-3.46</v>
+        <v>-1.19</v>
       </c>
       <c r="I32">
-        <v>6.274</v>
+        <v>5.904</v>
       </c>
       <c r="J32">
-        <v>6.31</v>
+        <v>5.885</v>
       </c>
       <c r="K32">
-        <v>6.433</v>
+        <v>6.008</v>
       </c>
       <c r="L32">
-        <v>103983.32</v>
+        <v>63558.69</v>
       </c>
       <c r="M32">
-        <v>71362.85</v>
+        <v>56808.43</v>
       </c>
       <c r="N32">
-        <v>66394.94</v>
+        <v>68488.26</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2609,43 +2641,43 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>6.79</v>
+        <v>5.9</v>
       </c>
       <c r="C33">
-        <v>6.79</v>
+        <v>5.91</v>
       </c>
       <c r="D33">
-        <v>6.36</v>
+        <v>5.9</v>
       </c>
       <c r="E33">
-        <v>6.24</v>
+        <v>5.85</v>
       </c>
       <c r="F33">
-        <v>187963.28</v>
+        <v>33841.89</v>
       </c>
       <c r="G33">
-        <v>0.19</v>
+        <v>-0.02</v>
       </c>
       <c r="H33">
-        <v>3.08</v>
+        <v>-0.34</v>
       </c>
       <c r="I33">
-        <v>6.318</v>
+        <v>5.938</v>
       </c>
       <c r="J33">
-        <v>6.326</v>
+        <v>5.892</v>
       </c>
       <c r="K33">
-        <v>6.464</v>
+        <v>6.035</v>
       </c>
       <c r="L33">
-        <v>67775.6</v>
+        <v>69233.72</v>
       </c>
       <c r="M33">
-        <v>55658.15</v>
+        <v>55116.74</v>
       </c>
       <c r="N33">
-        <v>59100.76</v>
+        <v>66776.82</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2653,43 +2685,43 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>6.25</v>
+        <v>5.88</v>
       </c>
       <c r="C34">
-        <v>6.3</v>
+        <v>5.93</v>
       </c>
       <c r="D34">
-        <v>6.17</v>
+        <v>5.92</v>
       </c>
       <c r="E34">
-        <v>6.11</v>
+        <v>5.82</v>
       </c>
       <c r="F34">
-        <v>59006.03</v>
+        <v>67896.7</v>
       </c>
       <c r="G34">
-        <v>-0.14</v>
+        <v>0.02</v>
       </c>
       <c r="H34">
-        <v>-2.22</v>
+        <v>0.34</v>
       </c>
       <c r="I34">
-        <v>6.334</v>
+        <v>5.928</v>
       </c>
       <c r="J34">
-        <v>6.324</v>
+        <v>5.901</v>
       </c>
       <c r="K34">
-        <v>6.486</v>
+        <v>6.062</v>
       </c>
       <c r="L34">
-        <v>38609.75</v>
+        <v>68215.35</v>
       </c>
       <c r="M34">
-        <v>45024.49</v>
+        <v>55115.32</v>
       </c>
       <c r="N34">
-        <v>52888.45</v>
+        <v>67191.43</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2697,43 +2729,43 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>6.39</v>
+        <v>5.96</v>
       </c>
       <c r="C35">
-        <v>6.39</v>
+        <v>5.97</v>
       </c>
       <c r="D35">
-        <v>6.31</v>
+        <v>5.9</v>
       </c>
       <c r="E35">
-        <v>6.25</v>
+        <v>5.84</v>
       </c>
       <c r="F35">
-        <v>41762</v>
+        <v>87449</v>
       </c>
       <c r="G35">
-        <v>-0.08</v>
+        <v>-0.07</v>
       </c>
       <c r="H35">
-        <v>-1.25</v>
+        <v>-1.17</v>
       </c>
       <c r="I35">
-        <v>6.36</v>
+        <v>5.906</v>
       </c>
       <c r="J35">
-        <v>6.348</v>
+        <v>5.913</v>
       </c>
       <c r="K35">
-        <v>6.525</v>
+        <v>6.081</v>
       </c>
       <c r="L35">
-        <v>30780.16</v>
+        <v>60418.56</v>
       </c>
       <c r="M35">
-        <v>45979.68</v>
+        <v>55232.42</v>
       </c>
       <c r="N35">
-        <v>51541.24</v>
+        <v>64789.5</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2741,43 +2773,43 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>6.35</v>
+        <v>6.13</v>
       </c>
       <c r="C36">
-        <v>6.39</v>
+        <v>6.13</v>
       </c>
       <c r="D36">
-        <v>6.39</v>
+        <v>5.97</v>
       </c>
       <c r="E36">
-        <v>6.27</v>
+        <v>5.92</v>
       </c>
       <c r="F36">
-        <v>34675.68</v>
+        <v>78906</v>
       </c>
       <c r="G36">
-        <v>0.03</v>
+        <v>-0.03</v>
       </c>
       <c r="H36">
-        <v>0.47</v>
+        <v>-0.5</v>
       </c>
       <c r="I36">
-        <v>6.36</v>
+        <v>5.888</v>
       </c>
       <c r="J36">
-        <v>6.367</v>
+        <v>5.925</v>
       </c>
       <c r="K36">
-        <v>6.558</v>
+        <v>6.101</v>
       </c>
       <c r="L36">
-        <v>30807.72</v>
+        <v>49177.74</v>
       </c>
       <c r="M36">
-        <v>45367.01</v>
+        <v>54235.42</v>
       </c>
       <c r="N36">
-        <v>52070.87</v>
+        <v>62512.03</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2785,43 +2817,43 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>6.4</v>
+        <v>5.85</v>
       </c>
       <c r="C37">
-        <v>6.45</v>
+        <v>6.01</v>
       </c>
       <c r="D37">
-        <v>6.36</v>
+        <v>6</v>
       </c>
       <c r="E37">
-        <v>6.34</v>
+        <v>5.85</v>
       </c>
       <c r="F37">
-        <v>15471.03</v>
+        <v>78075.03</v>
       </c>
       <c r="G37">
-        <v>-0.08</v>
+        <v>0.15</v>
       </c>
       <c r="H37">
-        <v>-1.24</v>
+        <v>2.56</v>
       </c>
       <c r="I37">
-        <v>6.346</v>
+        <v>5.866</v>
       </c>
       <c r="J37">
-        <v>6.378</v>
+        <v>5.927</v>
       </c>
       <c r="K37">
-        <v>6.586</v>
+        <v>6.119</v>
       </c>
       <c r="L37">
-        <v>38742.38</v>
+        <v>50058.17</v>
       </c>
       <c r="M37">
-        <v>50384.85</v>
+        <v>53205.52</v>
       </c>
       <c r="N37">
-        <v>52042.04</v>
+        <v>62284.18</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2829,43 +2861,43 @@
         <v>50</v>
       </c>
       <c r="B38">
-        <v>6.32</v>
+        <v>5.75</v>
       </c>
       <c r="C38">
-        <v>6.46</v>
+        <v>5.85</v>
       </c>
       <c r="D38">
-        <v>6.44</v>
+        <v>5.85</v>
       </c>
       <c r="E38">
-        <v>6.27</v>
+        <v>5.73</v>
       </c>
       <c r="F38">
-        <v>42134.01</v>
+        <v>28750</v>
       </c>
       <c r="G38">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="H38">
-        <v>2.22</v>
+        <v>0.69</v>
       </c>
       <c r="I38">
-        <v>6.334</v>
+        <v>5.846</v>
       </c>
       <c r="J38">
-        <v>6.404</v>
+        <v>5.941</v>
       </c>
       <c r="K38">
-        <v>6.619</v>
+        <v>6.134</v>
       </c>
       <c r="L38">
-        <v>43540.69</v>
+        <v>40999.76</v>
       </c>
       <c r="M38">
-        <v>56052.81</v>
+        <v>65048.97</v>
       </c>
       <c r="N38">
-        <v>53408.03</v>
+        <v>60353.56</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2873,43 +2905,43 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>6.31</v>
+        <v>5.83</v>
       </c>
       <c r="C39">
-        <v>6.37</v>
+        <v>5.85</v>
       </c>
       <c r="D39">
-        <v>6.3</v>
+        <v>5.81</v>
       </c>
       <c r="E39">
-        <v>6.28</v>
+        <v>5.76</v>
       </c>
       <c r="F39">
-        <v>19858.1</v>
+        <v>28912.78</v>
       </c>
       <c r="G39">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>-0.16</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>6.314</v>
+        <v>5.874</v>
       </c>
       <c r="J39">
-        <v>6.426</v>
+        <v>5.992</v>
       </c>
       <c r="K39">
-        <v>6.648</v>
+        <v>6.158</v>
       </c>
       <c r="L39">
-        <v>51439.22</v>
+        <v>42015.29</v>
       </c>
       <c r="M39">
-        <v>57596.91</v>
+        <v>80970.3</v>
       </c>
       <c r="N39">
-        <v>53418.55</v>
+        <v>62997.39</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2917,43 +2949,43 @@
         <v>52</v>
       </c>
       <c r="B40">
-        <v>6.3</v>
+        <v>5.84</v>
       </c>
       <c r="C40">
-        <v>6.33</v>
+        <v>5.84</v>
       </c>
       <c r="D40">
-        <v>6.31</v>
+        <v>5.81</v>
       </c>
       <c r="E40">
-        <v>6.25</v>
+        <v>5.76</v>
       </c>
       <c r="F40">
-        <v>41899.77</v>
+        <v>31244.88</v>
       </c>
       <c r="G40">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
       <c r="H40">
-        <v>-0.16</v>
+        <v>-0.85</v>
       </c>
       <c r="I40">
-        <v>6.336</v>
+        <v>5.92</v>
       </c>
       <c r="J40">
-        <v>6.469</v>
+        <v>6.028</v>
       </c>
       <c r="K40">
-        <v>6.68</v>
+        <v>6.188</v>
       </c>
       <c r="L40">
-        <v>61179.2</v>
+        <v>50046.27</v>
       </c>
       <c r="M40">
-        <v>62398.6</v>
+        <v>83979.63</v>
       </c>
       <c r="N40">
-        <v>55419.64</v>
+        <v>64979.66</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2961,86 +2993,746 @@
         <v>53</v>
       </c>
       <c r="B41">
+        <v>5.9</v>
+      </c>
+      <c r="C41">
+        <v>5.92</v>
+      </c>
+      <c r="D41">
+        <v>5.86</v>
+      </c>
+      <c r="E41">
+        <v>5.74</v>
+      </c>
+      <c r="F41">
+        <v>83308.15</v>
+      </c>
+      <c r="G41">
+        <v>-0.04</v>
+      </c>
+      <c r="H41">
+        <v>-0.68</v>
+      </c>
+      <c r="I41">
+        <v>5.962</v>
+      </c>
+      <c r="J41">
+        <v>6.078</v>
+      </c>
+      <c r="K41">
+        <v>6.223</v>
+      </c>
+      <c r="L41">
+        <v>59293.09</v>
+      </c>
+      <c r="M41">
+        <v>85031.34</v>
+      </c>
+      <c r="N41">
+        <v>65199.17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42">
+        <v>5.99</v>
+      </c>
+      <c r="C42">
+        <v>5.99</v>
+      </c>
+      <c r="D42">
+        <v>5.9</v>
+      </c>
+      <c r="E42">
+        <v>5.9</v>
+      </c>
+      <c r="F42">
+        <v>32783</v>
+      </c>
+      <c r="G42">
+        <v>-0.09</v>
+      </c>
+      <c r="H42">
+        <v>-1.5</v>
+      </c>
+      <c r="I42">
+        <v>5.988</v>
+      </c>
+      <c r="J42">
+        <v>6.131</v>
+      </c>
+      <c r="K42">
+        <v>6.255</v>
+      </c>
+      <c r="L42">
+        <v>56352.86</v>
+      </c>
+      <c r="M42">
+        <v>80168.09</v>
+      </c>
+      <c r="N42">
+        <v>65276.47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>6.02</v>
+      </c>
+      <c r="C43">
+        <v>6.06</v>
+      </c>
+      <c r="D43">
+        <v>5.99</v>
+      </c>
+      <c r="E43">
+        <v>5.94</v>
+      </c>
+      <c r="F43">
+        <v>33827.64</v>
+      </c>
+      <c r="G43">
+        <v>-0.05</v>
+      </c>
+      <c r="H43">
+        <v>-0.83</v>
+      </c>
+      <c r="I43">
+        <v>6.036</v>
+      </c>
+      <c r="J43">
+        <v>6.177</v>
+      </c>
+      <c r="K43">
+        <v>6.291</v>
+      </c>
+      <c r="L43">
+        <v>89098.19</v>
+      </c>
+      <c r="M43">
+        <v>78436.9</v>
+      </c>
+      <c r="N43">
+        <v>67244.85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44">
+        <v>5.98</v>
+      </c>
+      <c r="C44">
+        <v>6.08</v>
+      </c>
+      <c r="D44">
+        <v>6.04</v>
+      </c>
+      <c r="E44">
+        <v>5.95</v>
+      </c>
+      <c r="F44">
+        <v>69067.67</v>
+      </c>
+      <c r="G44">
+        <v>0.02</v>
+      </c>
+      <c r="H44">
+        <v>0.33</v>
+      </c>
+      <c r="I44">
+        <v>6.11</v>
+      </c>
+      <c r="J44">
+        <v>6.222</v>
+      </c>
+      <c r="K44">
+        <v>6.324</v>
+      </c>
+      <c r="L44">
+        <v>119925.31</v>
+      </c>
+      <c r="M44">
+        <v>79267.53</v>
+      </c>
+      <c r="N44">
+        <v>68432.22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45">
+        <v>5.96</v>
+      </c>
+      <c r="C45">
+        <v>6.02</v>
+      </c>
+      <c r="D45">
+        <v>6.02</v>
+      </c>
+      <c r="E45">
+        <v>5.8</v>
+      </c>
+      <c r="F45">
+        <v>77479</v>
+      </c>
+      <c r="G45">
+        <v>0.03</v>
+      </c>
+      <c r="H45">
+        <v>0.5</v>
+      </c>
+      <c r="I45">
+        <v>6.136</v>
+      </c>
+      <c r="J45">
+        <v>6.248</v>
+      </c>
+      <c r="K45">
+        <v>6.359</v>
+      </c>
+      <c r="L45">
+        <v>117912.99</v>
+      </c>
+      <c r="M45">
+        <v>74346.58</v>
+      </c>
+      <c r="N45">
+        <v>68372.59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46">
+        <v>5.93</v>
+      </c>
+      <c r="C46">
+        <v>6.09</v>
+      </c>
+      <c r="D46">
+        <v>5.99</v>
+      </c>
+      <c r="E46">
+        <v>5.88</v>
+      </c>
+      <c r="F46">
+        <v>68607</v>
+      </c>
+      <c r="G46">
+        <v>-0.15</v>
+      </c>
+      <c r="H46">
+        <v>-2.44</v>
+      </c>
+      <c r="I46">
+        <v>6.194</v>
+      </c>
+      <c r="J46">
+        <v>6.277</v>
+      </c>
+      <c r="K46">
+        <v>6.394</v>
+      </c>
+      <c r="L46">
+        <v>110769.59</v>
+      </c>
+      <c r="M46">
+        <v>70788.65</v>
+      </c>
+      <c r="N46">
+        <v>67591.74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>6.5</v>
+      </c>
+      <c r="D47">
+        <v>6.14</v>
+      </c>
+      <c r="E47">
+        <v>5.72</v>
+      </c>
+      <c r="F47">
+        <v>196509.62</v>
+      </c>
+      <c r="G47">
+        <v>-0.22</v>
+      </c>
+      <c r="H47">
+        <v>-3.46</v>
+      </c>
+      <c r="I47">
+        <v>6.274</v>
+      </c>
+      <c r="J47">
+        <v>6.31</v>
+      </c>
+      <c r="K47">
+        <v>6.433</v>
+      </c>
+      <c r="L47">
+        <v>103983.32</v>
+      </c>
+      <c r="M47">
+        <v>71362.85</v>
+      </c>
+      <c r="N47">
+        <v>66394.94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48">
+        <v>6.79</v>
+      </c>
+      <c r="C48">
+        <v>6.79</v>
+      </c>
+      <c r="D48">
+        <v>6.36</v>
+      </c>
+      <c r="E48">
+        <v>6.24</v>
+      </c>
+      <c r="F48">
+        <v>187963.28</v>
+      </c>
+      <c r="G48">
+        <v>0.19</v>
+      </c>
+      <c r="H48">
+        <v>3.08</v>
+      </c>
+      <c r="I48">
+        <v>6.318</v>
+      </c>
+      <c r="J48">
+        <v>6.326</v>
+      </c>
+      <c r="K48">
+        <v>6.464</v>
+      </c>
+      <c r="L48">
+        <v>67775.6</v>
+      </c>
+      <c r="M48">
+        <v>55658.15</v>
+      </c>
+      <c r="N48">
+        <v>59100.76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49">
+        <v>6.25</v>
+      </c>
+      <c r="C49">
+        <v>6.3</v>
+      </c>
+      <c r="D49">
+        <v>6.17</v>
+      </c>
+      <c r="E49">
+        <v>6.11</v>
+      </c>
+      <c r="F49">
+        <v>59006.03</v>
+      </c>
+      <c r="G49">
+        <v>-0.14</v>
+      </c>
+      <c r="H49">
+        <v>-2.22</v>
+      </c>
+      <c r="I49">
+        <v>6.334</v>
+      </c>
+      <c r="J49">
+        <v>6.324</v>
+      </c>
+      <c r="K49">
+        <v>6.486</v>
+      </c>
+      <c r="L49">
+        <v>38609.75</v>
+      </c>
+      <c r="M49">
+        <v>45024.49</v>
+      </c>
+      <c r="N49">
+        <v>52888.45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50">
+        <v>6.39</v>
+      </c>
+      <c r="C50">
+        <v>6.39</v>
+      </c>
+      <c r="D50">
+        <v>6.31</v>
+      </c>
+      <c r="E50">
+        <v>6.25</v>
+      </c>
+      <c r="F50">
+        <v>41762</v>
+      </c>
+      <c r="G50">
+        <v>-0.08</v>
+      </c>
+      <c r="H50">
+        <v>-1.25</v>
+      </c>
+      <c r="I50">
+        <v>6.36</v>
+      </c>
+      <c r="J50">
+        <v>6.348</v>
+      </c>
+      <c r="K50">
+        <v>6.525</v>
+      </c>
+      <c r="L50">
+        <v>30780.16</v>
+      </c>
+      <c r="M50">
+        <v>45979.68</v>
+      </c>
+      <c r="N50">
+        <v>51541.24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51">
+        <v>6.35</v>
+      </c>
+      <c r="C51">
+        <v>6.39</v>
+      </c>
+      <c r="D51">
+        <v>6.39</v>
+      </c>
+      <c r="E51">
         <v>6.27</v>
       </c>
-      <c r="C41">
+      <c r="F51">
+        <v>34675.68</v>
+      </c>
+      <c r="G51">
+        <v>0.03</v>
+      </c>
+      <c r="H51">
+        <v>0.47</v>
+      </c>
+      <c r="I51">
+        <v>6.36</v>
+      </c>
+      <c r="J51">
+        <v>6.367</v>
+      </c>
+      <c r="K51">
+        <v>6.558</v>
+      </c>
+      <c r="L51">
+        <v>30807.72</v>
+      </c>
+      <c r="M51">
+        <v>45367.01</v>
+      </c>
+      <c r="N51">
+        <v>52070.87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52">
+        <v>6.4</v>
+      </c>
+      <c r="C52">
+        <v>6.45</v>
+      </c>
+      <c r="D52">
+        <v>6.36</v>
+      </c>
+      <c r="E52">
+        <v>6.34</v>
+      </c>
+      <c r="F52">
+        <v>15471.03</v>
+      </c>
+      <c r="G52">
+        <v>-0.08</v>
+      </c>
+      <c r="H52">
+        <v>-1.24</v>
+      </c>
+      <c r="I52">
+        <v>6.346</v>
+      </c>
+      <c r="J52">
+        <v>6.378</v>
+      </c>
+      <c r="K52">
+        <v>6.586</v>
+      </c>
+      <c r="L52">
+        <v>38742.38</v>
+      </c>
+      <c r="M52">
+        <v>50384.85</v>
+      </c>
+      <c r="N52">
+        <v>52042.04</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53">
+        <v>6.32</v>
+      </c>
+      <c r="C53">
+        <v>6.46</v>
+      </c>
+      <c r="D53">
+        <v>6.44</v>
+      </c>
+      <c r="E53">
+        <v>6.27</v>
+      </c>
+      <c r="F53">
+        <v>42134.01</v>
+      </c>
+      <c r="G53">
+        <v>0.14</v>
+      </c>
+      <c r="H53">
+        <v>2.22</v>
+      </c>
+      <c r="I53">
+        <v>6.334</v>
+      </c>
+      <c r="J53">
+        <v>6.404</v>
+      </c>
+      <c r="K53">
+        <v>6.619</v>
+      </c>
+      <c r="L53">
+        <v>43540.69</v>
+      </c>
+      <c r="M53">
+        <v>56052.81</v>
+      </c>
+      <c r="N53">
+        <v>53408.03</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54">
+        <v>6.31</v>
+      </c>
+      <c r="C54">
+        <v>6.37</v>
+      </c>
+      <c r="D54">
+        <v>6.3</v>
+      </c>
+      <c r="E54">
+        <v>6.28</v>
+      </c>
+      <c r="F54">
+        <v>19858.1</v>
+      </c>
+      <c r="G54">
+        <v>-0.01</v>
+      </c>
+      <c r="H54">
+        <v>-0.16</v>
+      </c>
+      <c r="I54">
+        <v>6.314</v>
+      </c>
+      <c r="J54">
+        <v>6.426</v>
+      </c>
+      <c r="K54">
+        <v>6.648</v>
+      </c>
+      <c r="L54">
+        <v>51439.22</v>
+      </c>
+      <c r="M54">
+        <v>57596.91</v>
+      </c>
+      <c r="N54">
+        <v>53418.55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55">
+        <v>6.3</v>
+      </c>
+      <c r="C55">
         <v>6.33</v>
       </c>
-      <c r="D41">
+      <c r="D55">
+        <v>6.31</v>
+      </c>
+      <c r="E55">
+        <v>6.25</v>
+      </c>
+      <c r="F55">
+        <v>41899.77</v>
+      </c>
+      <c r="G55">
+        <v>-0.01</v>
+      </c>
+      <c r="H55">
+        <v>-0.16</v>
+      </c>
+      <c r="I55">
+        <v>6.336</v>
+      </c>
+      <c r="J55">
+        <v>6.469</v>
+      </c>
+      <c r="K55">
+        <v>6.68</v>
+      </c>
+      <c r="L55">
+        <v>61179.2</v>
+      </c>
+      <c r="M55">
+        <v>62398.6</v>
+      </c>
+      <c r="N55">
+        <v>55419.64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56">
+        <v>6.27</v>
+      </c>
+      <c r="C56">
+        <v>6.33</v>
+      </c>
+      <c r="D56">
         <v>6.32</v>
       </c>
-      <c r="E41">
+      <c r="E56">
         <v>6.15</v>
       </c>
-      <c r="F41">
+      <c r="F56">
         <v>74349</v>
       </c>
-      <c r="G41">
+      <c r="G56">
         <v>0.02</v>
       </c>
-      <c r="H41">
+      <c r="H56">
         <v>0.32</v>
       </c>
-      <c r="I41">
+      <c r="I56">
         <v>6.374</v>
       </c>
-      <c r="J41">
+      <c r="J56">
         <v>6.51</v>
       </c>
-      <c r="K41">
+      <c r="K56">
         <v>6.717</v>
       </c>
-      <c r="L41">
+      <c r="L56">
         <v>59926.29</v>
       </c>
-      <c r="M41">
+      <c r="M56">
         <v>64394.82</v>
       </c>
-      <c r="N41">
+      <c r="N56">
         <v>55468.55</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:14">
-      <c r="A42" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="1">
+    <row r="57" s="1" customFormat="1" spans="1:14">
+      <c r="A57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="1">
         <v>6.37</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C57" s="1">
         <v>6.42</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D57" s="1">
         <v>6.3</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E57" s="1">
         <v>6.23</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F57" s="1">
         <v>39462.57</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G57" s="1">
         <v>-0.04</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H57" s="1">
         <v>-0.63</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I57" s="1">
         <v>6.41</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J57" s="1">
         <v>6.555</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K57" s="1">
         <v>6.754</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L57" s="1">
         <v>62027.31</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M57" s="1">
         <v>61427.03</v>
       </c>
-      <c r="N42" s="1">
+      <c r="N57" s="1">
         <v>55402.22</v>
       </c>
     </row>
